--- a/12345.xlsx
+++ b/12345.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7710"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="15" r:id="rId1"/>
@@ -1400,7 +1400,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>201295</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1417,7 +1417,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1641475"/>
+          <a:off x="0" y="11499850"/>
           <a:ext cx="201295" cy="191770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1720,11 +1720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P172" sqref="P172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="11.25"/>
@@ -1803,7 +1803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="4" s="1" customFormat="1" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="6" s="1" customFormat="1" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="7" s="1" customFormat="1" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="9" s="1" customFormat="1" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="10" s="1" customFormat="1" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="11" s="1" customFormat="1" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="12" s="1" customFormat="1" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="14" s="1" customFormat="1" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="19" s="1" customFormat="1" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="20" s="1" customFormat="1" spans="1:12">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="21" s="1" customFormat="1" spans="1:12">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="22" s="1" customFormat="1" spans="1:12">
       <c r="A22" s="6" t="s">
         <v>50</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="23" s="1" customFormat="1" spans="1:12">
       <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="24" s="1" customFormat="1" spans="1:12">
       <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="25" s="1" customFormat="1" spans="1:12">
       <c r="A25" s="6" t="s">
         <v>50</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="26" s="1" customFormat="1" spans="1:12">
       <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="27" s="1" customFormat="1" spans="1:12">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="28" s="1" customFormat="1" spans="1:12">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="29" s="1" customFormat="1" spans="1:12">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="30" s="1" customFormat="1" spans="1:12">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="31" s="1" customFormat="1" spans="1:12">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="32" s="1" customFormat="1" spans="1:12">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="33" s="1" customFormat="1" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="34" s="1" customFormat="1" spans="1:12">
       <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="35" s="1" customFormat="1" spans="1:12">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="36" s="1" customFormat="1" spans="1:12">
       <c r="A36" s="6" t="s">
         <v>50</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="37" s="1" customFormat="1" spans="1:12">
       <c r="A37" s="6" t="s">
         <v>50</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="38" s="1" customFormat="1" spans="1:12">
       <c r="A38" s="6" t="s">
         <v>50</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="39" s="1" customFormat="1" spans="1:12">
       <c r="A39" s="6" t="s">
         <v>50</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="40" s="1" customFormat="1" spans="1:12">
       <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="41" s="1" customFormat="1" spans="1:12">
       <c r="A41" s="6" t="s">
         <v>50</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="42" s="1" customFormat="1" spans="1:12">
       <c r="A42" s="6" t="s">
         <v>50</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="43" s="1" customFormat="1" spans="1:12">
       <c r="A43" s="6" t="s">
         <v>50</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="44" s="1" customFormat="1" spans="1:12">
       <c r="A44" s="6" t="s">
         <v>17</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="45" s="1" customFormat="1" spans="1:12">
       <c r="A45" s="6" t="s">
         <v>17</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="46" s="1" customFormat="1" spans="1:12">
       <c r="A46" s="6" t="s">
         <v>17</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="50" s="1" customFormat="1" spans="1:12">
       <c r="A50" s="6" t="s">
         <v>17</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="51" s="1" customFormat="1" spans="1:12">
       <c r="A51" s="6" t="s">
         <v>17</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="52" s="1" customFormat="1" spans="1:12">
       <c r="A52" s="6" t="s">
         <v>17</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="53" s="1" customFormat="1" spans="1:12">
       <c r="A53" s="6" t="s">
         <v>17</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="54" s="1" customFormat="1" spans="1:12">
       <c r="A54" s="6" t="s">
         <v>17</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="55" s="1" customFormat="1" spans="1:12">
       <c r="A55" s="6" t="s">
         <v>50</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="56" s="1" customFormat="1" spans="1:12">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="57" s="1" customFormat="1" spans="1:12">
       <c r="A57" s="6" t="s">
         <v>50</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="58" s="1" customFormat="1" spans="1:12">
       <c r="A58" s="6" t="s">
         <v>50</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="59" s="1" customFormat="1" spans="1:12">
       <c r="A59" s="6" t="s">
         <v>50</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="60" s="1" customFormat="1" spans="1:12">
       <c r="A60" s="6" t="s">
         <v>50</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="61" s="1" customFormat="1" spans="1:12">
       <c r="A61" s="6" t="s">
         <v>50</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="62" s="1" customFormat="1" spans="1:12">
       <c r="A62" s="6" t="s">
         <v>50</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="63" s="1" customFormat="1" spans="1:12">
       <c r="A63" s="6" t="s">
         <v>50</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="64" s="1" customFormat="1" spans="1:12">
       <c r="A64" s="6" t="s">
         <v>50</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="65" s="1" customFormat="1" spans="1:12">
       <c r="A65" s="6" t="s">
         <v>50</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="66" s="1" customFormat="1" spans="1:12">
       <c r="A66" s="6" t="s">
         <v>50</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="67" s="1" customFormat="1" spans="1:12">
       <c r="A67" s="6" t="s">
         <v>50</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="68" s="1" customFormat="1" spans="1:12">
       <c r="A68" s="6" t="s">
         <v>50</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="69" s="1" customFormat="1" spans="1:12">
       <c r="A69" s="6" t="s">
         <v>50</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="70" s="1" customFormat="1" spans="1:12">
       <c r="A70" s="6" t="s">
         <v>50</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="71" s="1" customFormat="1" spans="1:12">
       <c r="A71" s="6" t="s">
         <v>50</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="72" s="1" customFormat="1" spans="1:12">
       <c r="A72" s="6" t="s">
         <v>50</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="73" s="1" customFormat="1" spans="1:12">
       <c r="A73" s="6" t="s">
         <v>50</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="74" s="1" customFormat="1" spans="1:12">
       <c r="A74" s="6" t="s">
         <v>50</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="75" s="1" customFormat="1" spans="1:12">
       <c r="A75" s="6" t="s">
         <v>50</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="76" s="1" customFormat="1" spans="1:12">
       <c r="A76" s="6" t="s">
         <v>50</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="77" s="1" customFormat="1" spans="1:12">
       <c r="A77" s="6" t="s">
         <v>50</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="78" s="1" customFormat="1" spans="1:12">
       <c r="A78" s="6" t="s">
         <v>50</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="79" s="1" customFormat="1" spans="1:12">
       <c r="A79" s="6" t="s">
         <v>50</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="80" s="1" customFormat="1" spans="1:12">
       <c r="A80" s="6" t="s">
         <v>50</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="81" s="1" customFormat="1" spans="1:12">
       <c r="A81" s="6" t="s">
         <v>50</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="82" s="1" customFormat="1" spans="1:12">
       <c r="A82" s="6" t="s">
         <v>50</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="83" s="1" customFormat="1" spans="1:12">
       <c r="A83" s="6" t="s">
         <v>50</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="84" s="1" customFormat="1" spans="1:12">
       <c r="A84" s="6" t="s">
         <v>50</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="85" s="1" customFormat="1" spans="1:12">
       <c r="A85" s="6" t="s">
         <v>50</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="86" s="1" customFormat="1" spans="1:12">
       <c r="A86" s="6" t="s">
         <v>50</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="87" s="1" customFormat="1" spans="1:12">
       <c r="A87" s="6" t="s">
         <v>50</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="88" s="1" customFormat="1" spans="1:12">
       <c r="A88" s="6" t="s">
         <v>50</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="89" s="1" customFormat="1" spans="1:12">
       <c r="A89" s="6" t="s">
         <v>50</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="90" s="1" customFormat="1" spans="1:12">
       <c r="A90" s="6" t="s">
         <v>50</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="91" s="1" customFormat="1" spans="1:12">
       <c r="A91" s="6" t="s">
         <v>50</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="92" s="1" customFormat="1" spans="1:12">
       <c r="A92" s="6" t="s">
         <v>50</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="93" s="1" customFormat="1" spans="1:12">
       <c r="A93" s="6" t="s">
         <v>50</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="94" s="1" customFormat="1" spans="1:12">
       <c r="A94" s="6" t="s">
         <v>50</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="95" s="1" customFormat="1" spans="1:12">
       <c r="A95" s="6" t="s">
         <v>50</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="96" s="1" customFormat="1" spans="1:12">
       <c r="A96" s="6" t="s">
         <v>50</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="97" s="1" customFormat="1" spans="1:12">
       <c r="A97" s="6" t="s">
         <v>50</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="98" s="1" customFormat="1" spans="1:12">
       <c r="A98" s="6" t="s">
         <v>50</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="99" s="1" customFormat="1" spans="1:12">
       <c r="A99" s="6" t="s">
         <v>50</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="100" s="1" customFormat="1" spans="1:12">
       <c r="A100" s="6" t="s">
         <v>50</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="101" s="1" customFormat="1" spans="1:12">
       <c r="A101" s="6" t="s">
         <v>50</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="102" s="1" customFormat="1" spans="1:12">
       <c r="A102" s="6" t="s">
         <v>50</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="103" s="1" customFormat="1" spans="1:12">
       <c r="A103" s="6" t="s">
         <v>50</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="104" s="1" customFormat="1" spans="1:12">
       <c r="A104" s="6" t="s">
         <v>50</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="105" s="1" customFormat="1" spans="1:12">
       <c r="A105" s="6" t="s">
         <v>50</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="106" s="1" customFormat="1" spans="1:12">
       <c r="A106" s="6" t="s">
         <v>50</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" hidden="1" spans="1:12">
+    <row r="107" s="1" customFormat="1" spans="1:12">
       <c r="A107" s="6" t="s">
         <v>50</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:12">
+    <row r="108" spans="1:12">
       <c r="A108" s="6" t="s">
         <v>50</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:12">
+    <row r="109" spans="1:12">
       <c r="A109" s="6" t="s">
         <v>50</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:12">
+    <row r="110" spans="1:12">
       <c r="A110" s="6" t="s">
         <v>50</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:12">
+    <row r="111" spans="1:12">
       <c r="A111" s="6" t="s">
         <v>50</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:12">
+    <row r="112" spans="1:12">
       <c r="A112" s="6" t="s">
         <v>50</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:12">
+    <row r="113" spans="1:12">
       <c r="A113" s="6" t="s">
         <v>50</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:12">
+    <row r="114" spans="1:12">
       <c r="A114" s="6" t="s">
         <v>50</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:12">
+    <row r="115" spans="1:12">
       <c r="A115" s="6" t="s">
         <v>50</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:12">
+    <row r="116" spans="1:12">
       <c r="A116" s="6" t="s">
         <v>50</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:12">
+    <row r="117" spans="1:12">
       <c r="A117" s="6" t="s">
         <v>50</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:12">
+    <row r="118" spans="1:12">
       <c r="A118" s="6" t="s">
         <v>50</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:12">
+    <row r="119" spans="1:12">
       <c r="A119" s="6" t="s">
         <v>50</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:12">
+    <row r="120" spans="1:12">
       <c r="A120" s="6" t="s">
         <v>50</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:12">
+    <row r="121" spans="1:12">
       <c r="A121" s="6" t="s">
         <v>50</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:12">
+    <row r="122" spans="1:12">
       <c r="A122" s="6" t="s">
         <v>50</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:12">
+    <row r="126" spans="1:12">
       <c r="A126" s="6" t="s">
         <v>50</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:12">
+    <row r="127" spans="1:12">
       <c r="A127" s="6" t="s">
         <v>50</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:12">
+    <row r="128" spans="1:12">
       <c r="A128" s="6" t="s">
         <v>50</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:12">
+    <row r="129" spans="1:12">
       <c r="A129" s="6" t="s">
         <v>50</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:12">
+    <row r="130" spans="1:12">
       <c r="A130" s="6" t="s">
         <v>50</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:12">
+    <row r="131" spans="1:12">
       <c r="A131" s="6" t="s">
         <v>50</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:12">
+    <row r="132" spans="1:12">
       <c r="A132" s="6" t="s">
         <v>50</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:12">
+    <row r="133" spans="1:12">
       <c r="A133" s="6" t="s">
         <v>50</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:12">
+    <row r="134" spans="1:12">
       <c r="A134" s="6" t="s">
         <v>50</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:12">
+    <row r="135" spans="1:12">
       <c r="A135" s="6" t="s">
         <v>50</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:12">
+    <row r="136" spans="1:12">
       <c r="A136" s="6" t="s">
         <v>50</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:12">
+    <row r="137" spans="1:12">
       <c r="A137" s="6" t="s">
         <v>50</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:12">
+    <row r="138" spans="1:12">
       <c r="A138" s="6" t="s">
         <v>50</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:12">
+    <row r="139" spans="1:12">
       <c r="A139" s="6" t="s">
         <v>50</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:12">
+    <row r="140" spans="1:12">
       <c r="A140" s="6" t="s">
         <v>50</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:12">
+    <row r="141" spans="1:12">
       <c r="A141" s="6" t="s">
         <v>50</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:12">
+    <row r="142" spans="1:12">
       <c r="A142" s="6" t="s">
         <v>50</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:12">
+    <row r="143" spans="1:12">
       <c r="A143" s="6" t="s">
         <v>50</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:12">
+    <row r="144" spans="1:12">
       <c r="A144" s="6" t="s">
         <v>50</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:12">
+    <row r="145" spans="1:12">
       <c r="A145" s="6" t="s">
         <v>50</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:12">
+    <row r="146" spans="1:12">
       <c r="A146" s="6" t="s">
         <v>50</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:12">
+    <row r="147" spans="1:12">
       <c r="A147" s="6" t="s">
         <v>50</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:12">
+    <row r="148" spans="1:12">
       <c r="A148" s="6" t="s">
         <v>50</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:12">
+    <row r="149" spans="1:12">
       <c r="A149" s="6" t="s">
         <v>50</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:12">
+    <row r="150" spans="1:12">
       <c r="A150" s="6" t="s">
         <v>50</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:12">
+    <row r="151" spans="1:12">
       <c r="A151" s="6" t="s">
         <v>50</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:12">
+    <row r="152" spans="1:12">
       <c r="A152" s="6" t="s">
         <v>50</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:12">
+    <row r="153" spans="1:12">
       <c r="A153" s="6" t="s">
         <v>50</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:12">
+    <row r="154" spans="1:12">
       <c r="A154" s="6" t="s">
         <v>50</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:12">
+    <row r="155" spans="1:12">
       <c r="A155" s="6" t="s">
         <v>50</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:12">
+    <row r="156" spans="1:12">
       <c r="A156" s="6" t="s">
         <v>50</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:12">
+    <row r="157" spans="1:12">
       <c r="A157" s="6" t="s">
         <v>50</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:12">
+    <row r="158" spans="1:12">
       <c r="A158" s="6" t="s">
         <v>50</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:12">
+    <row r="159" spans="1:12">
       <c r="A159" s="6" t="s">
         <v>50</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:12">
+    <row r="160" spans="1:12">
       <c r="A160" s="6" t="s">
         <v>50</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:12">
+    <row r="161" spans="1:12">
       <c r="A161" s="6" t="s">
         <v>50</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:12">
+    <row r="162" spans="1:12">
       <c r="A162" s="6" t="s">
         <v>50</v>
       </c>
@@ -8123,14 +8123,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R170">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="需核实"/>
-      </filters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <sortState ref="A2:L167">
     <sortCondition ref="J2" descending="1"/>
   </sortState>

--- a/12345.xlsx
+++ b/12345.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9480"/>
+    <workbookView windowWidth="21000" windowHeight="9490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
   <si>
     <t>营服</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
   <si>
     <t>宜都乡镇</t>
@@ -1085,15 +1088,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="19" max="19" width="12.8181818181818"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,41 +1152,44 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>18771784935</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>44505</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1188,41 +1197,45 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
+      <c r="S2">
+        <f>B2+1</f>
+        <v>18771784936</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>18695063226</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
         <v>42396</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1230,41 +1243,45 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="0">B3+1</f>
+        <v>18695063227</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>18674200984</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2">
         <v>44933</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1272,41 +1289,45 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>18674200985</v>
+      </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>18271317446</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>44562</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1314,41 +1335,45 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>18271317447</v>
+      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>17762990910</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
         <v>44550</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1356,41 +1381,45 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>17762990911</v>
+      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>17386509225</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>44573</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1398,91 +1427,99 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>17386509226</v>
+      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>15997559016</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
         <v>44576</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" s="1"/>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>15997559017</v>
+      </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>13997712326</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>44575</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1490,41 +1527,45 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>13997712327</v>
+      </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>13997652689</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>43308</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1532,41 +1573,45 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>13997652690</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>13872543639</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
         <v>44467</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1574,6 +1619,10 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>13872543640</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/12345.xlsx
+++ b/12345.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9490"/>
+    <workbookView windowWidth="21000" windowHeight="9490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>营服</t>
   </si>
@@ -1090,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1634,14 +1634,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
